--- a/po_analysis_by_asin/B0BTQ3SVFR_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTQ3SVFR_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,95 +452,95 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45362</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45369</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45376</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>56</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45383</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45390</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>384</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45397</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>368</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45404</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>272</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45418</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>1376</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45425</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>64</v>
@@ -548,113 +548,305 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45432</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>800</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45439</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>1280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45453</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45460</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>32</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45481</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45488</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>320</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45495</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>176</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45502</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45509</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>32</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45516</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>112</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45523</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>176</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45551</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>336</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45565</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B27" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B51" t="n">
         <v>464</v>
       </c>
     </row>
@@ -669,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,73 +883,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>536</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1088</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>3520</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>800</v>
+        <v>816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>320</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>512</v>
+        <v>944</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>464</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BTQ3SVFR_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTQ3SVFR_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,143 +508,143 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45109.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>496</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>48</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>264</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>64</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>224</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>264</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>80</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>296</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>200</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>448</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>296</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>352</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>168</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>448</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>24</v>
@@ -652,175 +652,175 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>24</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>256</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>160</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>64</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>368</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>272</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>1376</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>64</v>
+        <v>800</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>800</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>1280</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>32</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>192</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>320</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>176</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>112</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>112</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B48" t="n">
         <v>176</v>
@@ -828,25 +828,17 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>176</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>45571.99999999999</v>
-      </c>
-      <c r="B51" t="n">
         <v>464</v>
       </c>
     </row>
@@ -910,7 +902,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6">

--- a/po_analysis_by_asin/B0BTQ3SVFR_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTQ3SVFR_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -869,7 +870,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1023,6 +1024,845 @@
       </c>
       <c r="B20" t="n">
         <v>464</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>171</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-160.1054022116679</v>
+      </c>
+      <c r="D2" t="n">
+        <v>525.6738136245737</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>184</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-155.77020882793</v>
+      </c>
+      <c r="D3" t="n">
+        <v>559.4995512241478</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>186</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-170.8602116545419</v>
+      </c>
+      <c r="D4" t="n">
+        <v>506.0533940785263</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>192</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-145.9804662531609</v>
+      </c>
+      <c r="D5" t="n">
+        <v>540.3042613891064</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>194</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-155.0696138132409</v>
+      </c>
+      <c r="D6" t="n">
+        <v>534.4108146741908</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>195</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-128.8999283606942</v>
+      </c>
+      <c r="D7" t="n">
+        <v>577.5004291084665</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>198</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-150.8217044332972</v>
+      </c>
+      <c r="D8" t="n">
+        <v>544.6361798811702</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>203</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-143.0951882291968</v>
+      </c>
+      <c r="D9" t="n">
+        <v>565.784923308461</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>210</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-150.0596096308011</v>
+      </c>
+      <c r="D10" t="n">
+        <v>527.5147799250241</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>211</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-138.9772646067798</v>
+      </c>
+      <c r="D11" t="n">
+        <v>580.454528755005</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>213</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-157.1674481993727</v>
+      </c>
+      <c r="D12" t="n">
+        <v>557.3187967505693</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>215</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-141.0329074398941</v>
+      </c>
+      <c r="D13" t="n">
+        <v>551.228757089985</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>218</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-126.197282386975</v>
+      </c>
+      <c r="D14" t="n">
+        <v>562.6013108578585</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>219</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-129.768811651283</v>
+      </c>
+      <c r="D15" t="n">
+        <v>560.6499059924888</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>223</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-106.1199221681971</v>
+      </c>
+      <c r="D16" t="n">
+        <v>539.9250536117619</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>227</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-96.7400977955962</v>
+      </c>
+      <c r="D17" t="n">
+        <v>573.0117664966532</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>229</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-97.5716381430741</v>
+      </c>
+      <c r="D18" t="n">
+        <v>585.3477174697647</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>231</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-108.1749653531359</v>
+      </c>
+      <c r="D19" t="n">
+        <v>600.7699547288375</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>232</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-92.61705792606533</v>
+      </c>
+      <c r="D20" t="n">
+        <v>587.5123410128617</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>236</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-113.3161829190176</v>
+      </c>
+      <c r="D21" t="n">
+        <v>586.776847682008</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>237</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-113.8882346578996</v>
+      </c>
+      <c r="D22" t="n">
+        <v>571.0615885974732</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>239</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-95.12192127523868</v>
+      </c>
+      <c r="D23" t="n">
+        <v>588.9100932288977</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>242</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-121.3177597021558</v>
+      </c>
+      <c r="D24" t="n">
+        <v>609.7162002278658</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>248</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-119.2938802219235</v>
+      </c>
+      <c r="D25" t="n">
+        <v>604.1281348580573</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>252</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-93.98528371378902</v>
+      </c>
+      <c r="D26" t="n">
+        <v>636.2666873908011</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>261</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-91.36297529353915</v>
+      </c>
+      <c r="D27" t="n">
+        <v>602.9307383147021</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>263</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-101.874382054331</v>
+      </c>
+      <c r="D28" t="n">
+        <v>593.90713531754</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>265</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-84.18046322651443</v>
+      </c>
+      <c r="D29" t="n">
+        <v>606.6930435930451</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>266</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-62.39528302519009</v>
+      </c>
+      <c r="D30" t="n">
+        <v>622.1862200133855</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>268</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-115.0060939533052</v>
+      </c>
+      <c r="D31" t="n">
+        <v>613.9378168416059</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>269</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-99.97918140564859</v>
+      </c>
+      <c r="D32" t="n">
+        <v>598.1289717388545</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>271</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-50.75941951377362</v>
+      </c>
+      <c r="D33" t="n">
+        <v>637.8824467883907</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>273</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-90.07127640427646</v>
+      </c>
+      <c r="D34" t="n">
+        <v>607.1563885752696</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>276</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-64.8234871109966</v>
+      </c>
+      <c r="D35" t="n">
+        <v>594.6125011023346</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>277</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-62.1576247861527</v>
+      </c>
+      <c r="D36" t="n">
+        <v>633.8885518651692</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>279</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-74.87781931351586</v>
+      </c>
+      <c r="D37" t="n">
+        <v>627.7641181791848</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>281</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-75.63591172742719</v>
+      </c>
+      <c r="D38" t="n">
+        <v>631.7937822721158</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>284</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-55.64907577599489</v>
+      </c>
+      <c r="D39" t="n">
+        <v>634.6292188570059</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>285</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-64.62295862970149</v>
+      </c>
+      <c r="D40" t="n">
+        <v>637.7926876115358</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>290</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-48.80002005362939</v>
+      </c>
+      <c r="D41" t="n">
+        <v>627.1318900110194</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>292</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-44.74113161221559</v>
+      </c>
+      <c r="D42" t="n">
+        <v>625.1002197896214</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>294</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-89.32003917600154</v>
+      </c>
+      <c r="D43" t="n">
+        <v>639.0209036286878</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>295</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-70.30396197909454</v>
+      </c>
+      <c r="D44" t="n">
+        <v>654.3385663237872</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>297</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-28.25909431435525</v>
+      </c>
+      <c r="D45" t="n">
+        <v>659.1427863372119</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>298</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-42.07687703276896</v>
+      </c>
+      <c r="D46" t="n">
+        <v>631.5800850529752</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>300</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-52.58861928669527</v>
+      </c>
+      <c r="D47" t="n">
+        <v>636.8393044544423</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>306</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-44.33087997744075</v>
+      </c>
+      <c r="D48" t="n">
+        <v>630.9504537356979</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>308</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-52.45066551769133</v>
+      </c>
+      <c r="D49" t="n">
+        <v>646.7829167686053</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>310</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-31.78897189376545</v>
+      </c>
+      <c r="D50" t="n">
+        <v>657.2490376909783</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>311</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-17.92426633937998</v>
+      </c>
+      <c r="D51" t="n">
+        <v>676.4969254458767</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>313</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-32.67790171500803</v>
+      </c>
+      <c r="D52" t="n">
+        <v>640.368797115256</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>314</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-32.21221043642084</v>
+      </c>
+      <c r="D53" t="n">
+        <v>686.9172605297214</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>316</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-39.10630610469349</v>
+      </c>
+      <c r="D54" t="n">
+        <v>637.6659599390197</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>318</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-30.89494716277663</v>
+      </c>
+      <c r="D55" t="n">
+        <v>651.3209284834546</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>319</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-14.08062008535468</v>
+      </c>
+      <c r="D56" t="n">
+        <v>666.8265480945553</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>321</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-17.78763219181065</v>
+      </c>
+      <c r="D57" t="n">
+        <v>673.0828575459514</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>323</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-14.92607638750785</v>
+      </c>
+      <c r="D58" t="n">
+        <v>660.4660959904891</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BTQ3SVFR_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTQ3SVFR_po_data.xlsx
@@ -1037,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,16 +1056,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1074,12 +1064,6 @@
       <c r="B2" t="n">
         <v>171</v>
       </c>
-      <c r="C2" t="n">
-        <v>-160.1054022116679</v>
-      </c>
-      <c r="D2" t="n">
-        <v>525.6738136245737</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1088,12 +1072,6 @@
       <c r="B3" t="n">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
-        <v>-155.77020882793</v>
-      </c>
-      <c r="D3" t="n">
-        <v>559.4995512241478</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1102,12 +1080,6 @@
       <c r="B4" t="n">
         <v>186</v>
       </c>
-      <c r="C4" t="n">
-        <v>-170.8602116545419</v>
-      </c>
-      <c r="D4" t="n">
-        <v>506.0533940785263</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1116,12 +1088,6 @@
       <c r="B5" t="n">
         <v>192</v>
       </c>
-      <c r="C5" t="n">
-        <v>-145.9804662531609</v>
-      </c>
-      <c r="D5" t="n">
-        <v>540.3042613891064</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1130,12 +1096,6 @@
       <c r="B6" t="n">
         <v>194</v>
       </c>
-      <c r="C6" t="n">
-        <v>-155.0696138132409</v>
-      </c>
-      <c r="D6" t="n">
-        <v>534.4108146741908</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1144,12 +1104,6 @@
       <c r="B7" t="n">
         <v>195</v>
       </c>
-      <c r="C7" t="n">
-        <v>-128.8999283606942</v>
-      </c>
-      <c r="D7" t="n">
-        <v>577.5004291084665</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1158,12 +1112,6 @@
       <c r="B8" t="n">
         <v>198</v>
       </c>
-      <c r="C8" t="n">
-        <v>-150.8217044332972</v>
-      </c>
-      <c r="D8" t="n">
-        <v>544.6361798811702</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1172,12 +1120,6 @@
       <c r="B9" t="n">
         <v>203</v>
       </c>
-      <c r="C9" t="n">
-        <v>-143.0951882291968</v>
-      </c>
-      <c r="D9" t="n">
-        <v>565.784923308461</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1186,12 +1128,6 @@
       <c r="B10" t="n">
         <v>210</v>
       </c>
-      <c r="C10" t="n">
-        <v>-150.0596096308011</v>
-      </c>
-      <c r="D10" t="n">
-        <v>527.5147799250241</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1200,12 +1136,6 @@
       <c r="B11" t="n">
         <v>211</v>
       </c>
-      <c r="C11" t="n">
-        <v>-138.9772646067798</v>
-      </c>
-      <c r="D11" t="n">
-        <v>580.454528755005</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1214,12 +1144,6 @@
       <c r="B12" t="n">
         <v>213</v>
       </c>
-      <c r="C12" t="n">
-        <v>-157.1674481993727</v>
-      </c>
-      <c r="D12" t="n">
-        <v>557.3187967505693</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1228,12 +1152,6 @@
       <c r="B13" t="n">
         <v>215</v>
       </c>
-      <c r="C13" t="n">
-        <v>-141.0329074398941</v>
-      </c>
-      <c r="D13" t="n">
-        <v>551.228757089985</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1242,12 +1160,6 @@
       <c r="B14" t="n">
         <v>218</v>
       </c>
-      <c r="C14" t="n">
-        <v>-126.197282386975</v>
-      </c>
-      <c r="D14" t="n">
-        <v>562.6013108578585</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1256,12 +1168,6 @@
       <c r="B15" t="n">
         <v>219</v>
       </c>
-      <c r="C15" t="n">
-        <v>-129.768811651283</v>
-      </c>
-      <c r="D15" t="n">
-        <v>560.6499059924888</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1270,12 +1176,6 @@
       <c r="B16" t="n">
         <v>223</v>
       </c>
-      <c r="C16" t="n">
-        <v>-106.1199221681971</v>
-      </c>
-      <c r="D16" t="n">
-        <v>539.9250536117619</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1284,12 +1184,6 @@
       <c r="B17" t="n">
         <v>227</v>
       </c>
-      <c r="C17" t="n">
-        <v>-96.7400977955962</v>
-      </c>
-      <c r="D17" t="n">
-        <v>573.0117664966532</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1298,12 +1192,6 @@
       <c r="B18" t="n">
         <v>229</v>
       </c>
-      <c r="C18" t="n">
-        <v>-97.5716381430741</v>
-      </c>
-      <c r="D18" t="n">
-        <v>585.3477174697647</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1312,12 +1200,6 @@
       <c r="B19" t="n">
         <v>231</v>
       </c>
-      <c r="C19" t="n">
-        <v>-108.1749653531359</v>
-      </c>
-      <c r="D19" t="n">
-        <v>600.7699547288375</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1326,12 +1208,6 @@
       <c r="B20" t="n">
         <v>232</v>
       </c>
-      <c r="C20" t="n">
-        <v>-92.61705792606533</v>
-      </c>
-      <c r="D20" t="n">
-        <v>587.5123410128617</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1340,12 +1216,6 @@
       <c r="B21" t="n">
         <v>236</v>
       </c>
-      <c r="C21" t="n">
-        <v>-113.3161829190176</v>
-      </c>
-      <c r="D21" t="n">
-        <v>586.776847682008</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1354,12 +1224,6 @@
       <c r="B22" t="n">
         <v>237</v>
       </c>
-      <c r="C22" t="n">
-        <v>-113.8882346578996</v>
-      </c>
-      <c r="D22" t="n">
-        <v>571.0615885974732</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1368,12 +1232,6 @@
       <c r="B23" t="n">
         <v>239</v>
       </c>
-      <c r="C23" t="n">
-        <v>-95.12192127523868</v>
-      </c>
-      <c r="D23" t="n">
-        <v>588.9100932288977</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1382,12 +1240,6 @@
       <c r="B24" t="n">
         <v>242</v>
       </c>
-      <c r="C24" t="n">
-        <v>-121.3177597021558</v>
-      </c>
-      <c r="D24" t="n">
-        <v>609.7162002278658</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1396,12 +1248,6 @@
       <c r="B25" t="n">
         <v>248</v>
       </c>
-      <c r="C25" t="n">
-        <v>-119.2938802219235</v>
-      </c>
-      <c r="D25" t="n">
-        <v>604.1281348580573</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1410,12 +1256,6 @@
       <c r="B26" t="n">
         <v>252</v>
       </c>
-      <c r="C26" t="n">
-        <v>-93.98528371378902</v>
-      </c>
-      <c r="D26" t="n">
-        <v>636.2666873908011</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1424,12 +1264,6 @@
       <c r="B27" t="n">
         <v>261</v>
       </c>
-      <c r="C27" t="n">
-        <v>-91.36297529353915</v>
-      </c>
-      <c r="D27" t="n">
-        <v>602.9307383147021</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1438,12 +1272,6 @@
       <c r="B28" t="n">
         <v>263</v>
       </c>
-      <c r="C28" t="n">
-        <v>-101.874382054331</v>
-      </c>
-      <c r="D28" t="n">
-        <v>593.90713531754</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1452,12 +1280,6 @@
       <c r="B29" t="n">
         <v>265</v>
       </c>
-      <c r="C29" t="n">
-        <v>-84.18046322651443</v>
-      </c>
-      <c r="D29" t="n">
-        <v>606.6930435930451</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1466,12 +1288,6 @@
       <c r="B30" t="n">
         <v>266</v>
       </c>
-      <c r="C30" t="n">
-        <v>-62.39528302519009</v>
-      </c>
-      <c r="D30" t="n">
-        <v>622.1862200133855</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1480,12 +1296,6 @@
       <c r="B31" t="n">
         <v>268</v>
       </c>
-      <c r="C31" t="n">
-        <v>-115.0060939533052</v>
-      </c>
-      <c r="D31" t="n">
-        <v>613.9378168416059</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1494,12 +1304,6 @@
       <c r="B32" t="n">
         <v>269</v>
       </c>
-      <c r="C32" t="n">
-        <v>-99.97918140564859</v>
-      </c>
-      <c r="D32" t="n">
-        <v>598.1289717388545</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1508,12 +1312,6 @@
       <c r="B33" t="n">
         <v>271</v>
       </c>
-      <c r="C33" t="n">
-        <v>-50.75941951377362</v>
-      </c>
-      <c r="D33" t="n">
-        <v>637.8824467883907</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1522,12 +1320,6 @@
       <c r="B34" t="n">
         <v>273</v>
       </c>
-      <c r="C34" t="n">
-        <v>-90.07127640427646</v>
-      </c>
-      <c r="D34" t="n">
-        <v>607.1563885752696</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1536,12 +1328,6 @@
       <c r="B35" t="n">
         <v>276</v>
       </c>
-      <c r="C35" t="n">
-        <v>-64.8234871109966</v>
-      </c>
-      <c r="D35" t="n">
-        <v>594.6125011023346</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1550,12 +1336,6 @@
       <c r="B36" t="n">
         <v>277</v>
       </c>
-      <c r="C36" t="n">
-        <v>-62.1576247861527</v>
-      </c>
-      <c r="D36" t="n">
-        <v>633.8885518651692</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1564,12 +1344,6 @@
       <c r="B37" t="n">
         <v>279</v>
       </c>
-      <c r="C37" t="n">
-        <v>-74.87781931351586</v>
-      </c>
-      <c r="D37" t="n">
-        <v>627.7641181791848</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1578,12 +1352,6 @@
       <c r="B38" t="n">
         <v>281</v>
       </c>
-      <c r="C38" t="n">
-        <v>-75.63591172742719</v>
-      </c>
-      <c r="D38" t="n">
-        <v>631.7937822721158</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1592,12 +1360,6 @@
       <c r="B39" t="n">
         <v>284</v>
       </c>
-      <c r="C39" t="n">
-        <v>-55.64907577599489</v>
-      </c>
-      <c r="D39" t="n">
-        <v>634.6292188570059</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1606,12 +1368,6 @@
       <c r="B40" t="n">
         <v>285</v>
       </c>
-      <c r="C40" t="n">
-        <v>-64.62295862970149</v>
-      </c>
-      <c r="D40" t="n">
-        <v>637.7926876115358</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1620,12 +1376,6 @@
       <c r="B41" t="n">
         <v>290</v>
       </c>
-      <c r="C41" t="n">
-        <v>-48.80002005362939</v>
-      </c>
-      <c r="D41" t="n">
-        <v>627.1318900110194</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1634,12 +1384,6 @@
       <c r="B42" t="n">
         <v>292</v>
       </c>
-      <c r="C42" t="n">
-        <v>-44.74113161221559</v>
-      </c>
-      <c r="D42" t="n">
-        <v>625.1002197896214</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1648,12 +1392,6 @@
       <c r="B43" t="n">
         <v>294</v>
       </c>
-      <c r="C43" t="n">
-        <v>-89.32003917600154</v>
-      </c>
-      <c r="D43" t="n">
-        <v>639.0209036286878</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1662,12 +1400,6 @@
       <c r="B44" t="n">
         <v>295</v>
       </c>
-      <c r="C44" t="n">
-        <v>-70.30396197909454</v>
-      </c>
-      <c r="D44" t="n">
-        <v>654.3385663237872</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1676,12 +1408,6 @@
       <c r="B45" t="n">
         <v>297</v>
       </c>
-      <c r="C45" t="n">
-        <v>-28.25909431435525</v>
-      </c>
-      <c r="D45" t="n">
-        <v>659.1427863372119</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1690,12 +1416,6 @@
       <c r="B46" t="n">
         <v>298</v>
       </c>
-      <c r="C46" t="n">
-        <v>-42.07687703276896</v>
-      </c>
-      <c r="D46" t="n">
-        <v>631.5800850529752</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1704,12 +1424,6 @@
       <c r="B47" t="n">
         <v>300</v>
       </c>
-      <c r="C47" t="n">
-        <v>-52.58861928669527</v>
-      </c>
-      <c r="D47" t="n">
-        <v>636.8393044544423</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1718,12 +1432,6 @@
       <c r="B48" t="n">
         <v>306</v>
       </c>
-      <c r="C48" t="n">
-        <v>-44.33087997744075</v>
-      </c>
-      <c r="D48" t="n">
-        <v>630.9504537356979</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1732,12 +1440,6 @@
       <c r="B49" t="n">
         <v>308</v>
       </c>
-      <c r="C49" t="n">
-        <v>-52.45066551769133</v>
-      </c>
-      <c r="D49" t="n">
-        <v>646.7829167686053</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1746,12 +1448,6 @@
       <c r="B50" t="n">
         <v>310</v>
       </c>
-      <c r="C50" t="n">
-        <v>-31.78897189376545</v>
-      </c>
-      <c r="D50" t="n">
-        <v>657.2490376909783</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1760,12 +1456,6 @@
       <c r="B51" t="n">
         <v>311</v>
       </c>
-      <c r="C51" t="n">
-        <v>-17.92426633937998</v>
-      </c>
-      <c r="D51" t="n">
-        <v>676.4969254458767</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1774,12 +1464,6 @@
       <c r="B52" t="n">
         <v>313</v>
       </c>
-      <c r="C52" t="n">
-        <v>-32.67790171500803</v>
-      </c>
-      <c r="D52" t="n">
-        <v>640.368797115256</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1788,12 +1472,6 @@
       <c r="B53" t="n">
         <v>314</v>
       </c>
-      <c r="C53" t="n">
-        <v>-32.21221043642084</v>
-      </c>
-      <c r="D53" t="n">
-        <v>686.9172605297214</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1802,12 +1480,6 @@
       <c r="B54" t="n">
         <v>316</v>
       </c>
-      <c r="C54" t="n">
-        <v>-39.10630610469349</v>
-      </c>
-      <c r="D54" t="n">
-        <v>637.6659599390197</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1816,12 +1488,6 @@
       <c r="B55" t="n">
         <v>318</v>
       </c>
-      <c r="C55" t="n">
-        <v>-30.89494716277663</v>
-      </c>
-      <c r="D55" t="n">
-        <v>651.3209284834546</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1830,12 +1496,6 @@
       <c r="B56" t="n">
         <v>319</v>
       </c>
-      <c r="C56" t="n">
-        <v>-14.08062008535468</v>
-      </c>
-      <c r="D56" t="n">
-        <v>666.8265480945553</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1844,12 +1504,6 @@
       <c r="B57" t="n">
         <v>321</v>
       </c>
-      <c r="C57" t="n">
-        <v>-17.78763219181065</v>
-      </c>
-      <c r="D57" t="n">
-        <v>673.0828575459514</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1857,12 +1511,6 @@
       </c>
       <c r="B58" t="n">
         <v>323</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-14.92607638750785</v>
-      </c>
-      <c r="D58" t="n">
-        <v>660.4660959904891</v>
       </c>
     </row>
   </sheetData>
